--- a/Scores.xlsx
+++ b/Scores.xlsx
@@ -389,12 +389,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.000292600579535</t>
+          <t>-0.0363841928604</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.000888543775986</t>
+          <t>-0.00242163356416</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -404,7 +404,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-5.87126785906e-18</t>
+          <t>0.00781410651861</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -419,7 +419,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.00170682371649</t>
+          <t>-0.028688952993</t>
         </is>
       </c>
     </row>
@@ -436,12 +436,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.0143016181117</t>
+          <t>-0.00654413574052</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.0111054378351</t>
+          <t>-0.000971817298348</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00911241643167</t>
+          <t>0.00897985634117</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.0252450399818</t>
+          <t>0.0430035827992</t>
         </is>
       </c>
     </row>
@@ -483,12 +483,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.0153477154096</t>
+          <t>-0.00219994079562</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.000888543775986</t>
+          <t>-0.00242163356416</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.0196169283804</t>
+          <t>-0.0198334809031</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-0.0129892713296</t>
+          <t>-0.00159113902645</t>
         </is>
       </c>
     </row>
@@ -530,12 +530,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.0174016462049</t>
+          <t>0.0156702281862</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.0111054378351</t>
+          <t>-0.000971817298348</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.00911241643167</t>
+          <t>-0.0134030826896</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.150674172605</t>
+          <t>-0.111759343935</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0178007880763</t>
+          <t>0.0576511764772</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0060045853197</t>
+          <t>0.00567256388655</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>-0.0147524182819</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0448335449373</t>
+          <t>0.0695994936232</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0199749851649</t>
+          <t>0.0575963914126</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.00227716330514</t>
+          <t>0.0187692307692</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>-0.00509803921569</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-0.0440334663845</t>
+          <t>0.00953629472191</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.063871388053</t>
+          <t>0.0287813281264</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00731109359951</t>
+          <t>-0.0113135975383</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>-0.00299303877575</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.066519638286</t>
+          <t>0.00981184844592</t>
         </is>
       </c>
     </row>
@@ -718,12 +718,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.111635887658</t>
+          <t>-0.0122021284112</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00282879759476</t>
+          <t>0.0179728438857</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.000646514037414</t>
+          <t>-0.0176132371596</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.080488817041</t>
+          <t>0.0171222653746</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.00542058670013</t>
+          <t>0.0172704975473</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.000593824228028</t>
+          <t>0.0021928344916</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-9.01875121309e-18</t>
+          <t>-0.00193636173331</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.00601441092816</t>
+          <t>0.0175269703056</t>
         </is>
       </c>
     </row>
@@ -812,12 +812,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0587550602003</t>
+          <t>0.0119408686978</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00559164733179</t>
+          <t>-0.00410883561422</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.78056612185e-18</t>
+          <t>0.00310755204748</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.0630960338445</t>
+          <t>0.00968891144343</t>
         </is>
       </c>
     </row>
@@ -859,12 +859,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0670232726662</t>
+          <t>0.0593892109929</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.006264344031</t>
+          <t>0.0002459999385</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>-0.0104494896948</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.0884487721926</t>
+          <t>0.064346876732</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.0549167340384</t>
+          <t>0.06253830635</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.00546419650291</t>
+          <t>-0.000824366539396</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.0480241502049</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.199546890282</t>
+          <t>0.209832442762</t>
         </is>
       </c>
     </row>
@@ -953,12 +953,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.0439785445173</t>
+          <t>-0.0219279340739</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.000523012552301</t>
+          <t>0.00709001233046</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>0.00702716823406</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-0.043455531965</t>
+          <t>-0.00781075350942</t>
         </is>
       </c>
     </row>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0153556492677</t>
+          <t>-0.0501269993822</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-0.00626880641926</t>
+          <t>0.0109208972845</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.42722017264e-17</t>
+          <t>0.0060436769934</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.0701083891578</t>
+          <t>0.0278591212051</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1047,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0187653072794</t>
+          <t>0.0600383922161</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-0.000170590242238</t>
+          <t>0.00463493386106</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>-0.00511945392491</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.0056551743472</t>
+          <t>0.0466143294622</t>
         </is>
       </c>
     </row>
@@ -1094,12 +1094,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.0644606525313</t>
+          <t>0.123868172095</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-0.00475391498881</t>
+          <t>0.00202429149798</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>0.0116149068323</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.062547845169</t>
+          <t>0.140348478052</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.0455472684577</t>
+          <t>-0.0100038539972</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.000983864620228</t>
+          <t>0.00244335850733</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>0.00557737627651</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-0.051209579097</t>
+          <t>-0.00862929447292</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.0427742973984</t>
+          <t>-0.0778266390016</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.000888543775986</t>
+          <t>-0.00242163356416</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.0196169283804</t>
+          <t>0.025872266655</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.00195027223664</t>
+          <t>-0.0283798208801</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0413327954558</t>
+          <t>0.0707799272789</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.00282879759476</t>
+          <t>0.0179728438857</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.00271221078728</t>
+          <t>0.0473033889013</t>
         </is>
       </c>
     </row>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.0112717822946</t>
+          <t>-0.00166863143617</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.00177196586335</t>
+          <t>-0.00235265956537</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.40679455979e-18</t>
+          <t>0.00156217756269</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-0.0205057440726</t>
+          <t>-0.0360086056694</t>
         </is>
       </c>
     </row>
@@ -1329,12 +1329,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.126546176446</t>
+          <t>0.0118458902873</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-0.00375282747275</t>
+          <t>-0.00399537377773</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>0.00112918263752</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.091405814142</t>
+          <t>-0.0224078356842</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.0570436016899</t>
+          <t>0.0249653396454</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-0.0029990030562</t>
+          <t>-0.00370670776219</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>-0.000302532061822</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.0785946982669</t>
+          <t>0.0455061994546</t>
         </is>
       </c>
     </row>
@@ -1423,12 +1423,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.0241757171814</t>
+          <t>0.0442754731807</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00282879759476</t>
+          <t>0.0179728438857</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.000646514037414</t>
+          <t>-0.00252271705431</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.155639642087</t>
+          <t>0.187714213286</t>
         </is>
       </c>
     </row>
@@ -1470,12 +1470,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.0950447452362</t>
+          <t>0.076798127701</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.00546419650291</t>
+          <t>-0.000824366539396</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.0480241502049</t>
+          <t>0.0476078973068</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-0.0495623367051</t>
+          <t>0.126504113298</t>
         </is>
       </c>
     </row>
@@ -1517,12 +1517,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-0.0178775052408</t>
+          <t>0.0493758816171</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.000961538461538</t>
+          <t>0.00624024960998</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>0.0122840690979</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.0990377480749</t>
+          <t>0.183853915179</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-0.0801559010096</t>
+          <t>0.0466206662936</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-0.00479616306954</t>
+          <t>-0.0110091743119</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>0.0145278450363</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-0.132305406507</t>
+          <t>0.00278599458957</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-0.0569448742319</t>
+          <t>-0.0241053391937</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-0.00191570881226</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-7.83988258928e-18</t>
+          <t>0.0101923076923</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-0.0894212677703</t>
+          <t>-0.0444737162275</t>
         </is>
       </c>
     </row>
@@ -1658,12 +1658,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-0.0673317009365</t>
+          <t>0.0023116299489</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.00282879759476</t>
+          <t>0.0179728438857</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.00424573593193</t>
+          <t>-0.0016282206546</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-0.185841225353</t>
+          <t>-0.106927804763</t>
         </is>
       </c>
     </row>
@@ -1705,12 +1705,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-0.0250006503177</t>
+          <t>0.00651429737327</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-0.00834220802272</t>
+          <t>-0.00105152471083</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.62413436348e-17</t>
+          <t>-0.00138989169675</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-0.00820649997902</t>
+          <t>0.0292092393271</t>
         </is>
       </c>
     </row>
